--- a/quiz_bank/static/excel/MCQ.xlsx
+++ b/quiz_bank/static/excel/MCQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lms\2024_10_29_lms\LMS-FSA\quiz_bank\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lms\2024_10_29_lms\LMS-with-Django-main_0411\quiz_bank\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B56931-52C2-4C00-9430-59754473CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1164CFF2-99A4-4FC7-BAA3-4B1C526F29C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>question</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>b,c,d</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>chap2</t>
+  </si>
+  <si>
+    <t>chap1</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,6 +255,9 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,220 +553,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="5"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B13">
+  <conditionalFormatting sqref="A2:A13 C2:C13">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
